--- a/DataTables/Book2.xlsx
+++ b/DataTables/Book2.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\qc\views\git\data_tables\UftTests\DataTables\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\dev\UftTests\DataTables\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="17265" windowHeight="7875"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="17268" windowHeight="7872"/>
   </bookViews>
   <sheets>
     <sheet name="Action1" sheetId="1" r:id="rId1"/>
@@ -39,10 +39,10 @@
     <t>e</t>
   </si>
   <si>
-    <t>f2</t>
-  </si>
-  <si>
     <t>d2</t>
+  </si>
+  <si>
+    <t>f3</t>
   </si>
 </sst>
 </file>
@@ -364,12 +364,12 @@
   <dimension ref="A1:B3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -377,20 +377,20 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>2</v>
       </c>
       <c r="B2" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>3</v>
       </c>
       <c r="B3" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
   </sheetData>
@@ -406,7 +406,7 @@
       <selection activeCell="D20" sqref="D20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
